--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="945" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9F1243-FD62-41A9-98B0-C18D61DC0127}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3198AAC8-90CE-4D40-A4E7-556668782423}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11328" yWindow="1032" windowWidth="17280" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,9 +638,6 @@
     <t>Data Transformations (tidyr)</t>
   </si>
   <si>
-    <t>Midterm?</t>
-  </si>
-  <si>
     <t>Debugging + Version Control</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t>Lab1: Intro to Quarto (incorporate spiral + madlibs + fizzbuzz?)</t>
+  </si>
+  <si>
+    <t>Midterm Exam???</t>
   </si>
 </sst>
 </file>
@@ -847,6 +847,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1229,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="D3" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>164</v>
@@ -1256,11 +1260,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>88</v>
@@ -1285,7 +1289,7 @@
         <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>154</v>
@@ -1305,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>86</v>
@@ -1373,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N8" t="s">
         <v>114</v>
@@ -1384,7 +1388,7 @@
       <c r="C9" s="8"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>157</v>
@@ -1428,7 +1432,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="E11" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>138</v>
@@ -1450,9 +1454,6 @@
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>169</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>149</v>
@@ -1475,7 +1476,7 @@
       <c r="C13" s="8"/>
       <c r="E13" s="17"/>
       <c r="F13" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>97</v>
@@ -1498,13 +1499,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
@@ -1583,11 +1584,9 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>162</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1624,9 +1623,9 @@
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1662,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>103</v>
@@ -1709,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>103</v>
@@ -1794,6 +1793,7 @@
     <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
+      <c r="E29"/>
       <c r="N29" s="4" t="s">
         <v>128</v>
       </c>
@@ -1809,11 +1809,12 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="2" t="s">
         <v>61</v>
       </c>
@@ -1849,6 +1850,13 @@
       <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="9" t="s">
         <v>110</v>
       </c>
@@ -1866,7 +1874,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
       <c r="F33" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -1880,10 +1888,10 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>62</v>
@@ -1934,7 +1942,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="8"/>
       <c r="F37" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
@@ -1952,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>63</v>
@@ -1994,7 +2002,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="8"/>
       <c r="F41" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>45</v>
@@ -2058,8 +2066,8 @@
     <hyperlink ref="J23" r:id="rId23" xr:uid="{CE13A70E-CC36-4ADC-9A3E-580BA2EDED19}"/>
     <hyperlink ref="F9" r:id="rId24" display="HW6: Data Frames (Video Games)" xr:uid="{2E3412C8-2BBA-4A6A-B162-F38F23598A8F}"/>
     <hyperlink ref="F13" r:id="rId25" display="HW8: Murder in SQL City" xr:uid="{65C178E5-D1E2-4A2C-B6B2-53A4DF52F2DC}"/>
-    <hyperlink ref="E18" r:id="rId26" xr:uid="{9896A526-0D38-4CB0-97B1-BBBF6C6245CC}"/>
-    <hyperlink ref="F8" r:id="rId27" xr:uid="{9B3A5166-9122-4506-97D8-56D10A3D5384}"/>
+    <hyperlink ref="F8" r:id="rId26" xr:uid="{9B3A5166-9122-4506-97D8-56D10A3D5384}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{7384CE21-0B83-44EF-A91A-B6EBBFADD5FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId28"/>

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3198AAC8-90CE-4D40-A4E7-556668782423}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F796DFC7-161F-4B88-98D5-7E1CD33ED357}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="1032" windowWidth="17280" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
   <si>
     <t>Week</t>
   </si>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1408,7 @@
         <v>168</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>56</v>
@@ -1432,7 +1432,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="E11" s="9" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>138</v>
@@ -1455,9 +1455,7 @@
       <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="G12" s="9" t="s">
         <v>141</v>
       </c>
@@ -1501,8 +1499,8 @@
       <c r="D14" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>174</v>
+      <c r="E14" t="s">
+        <v>98</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>176</v>
@@ -1562,7 +1560,9 @@
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>137</v>
       </c>
@@ -1586,7 +1586,9 @@
       <c r="D18" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1605,6 +1607,9 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
+      <c r="E19" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
         <v>100</v>

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F796DFC7-161F-4B88-98D5-7E1CD33ED357}"/>
+  <xr:revisionPtr revIDLastSave="1009" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97EADDE2-6CAD-4AA6-A91B-4C310D43FAEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
   <si>
     <t>Week</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Lab3: Murder in SQL City</t>
   </si>
   <si>
-    <t>Lab2: Data Frames (Video Games)</t>
-  </si>
-  <si>
     <t>PA: Identify the mystery college</t>
   </si>
   <si>
@@ -671,23 +668,35 @@
     <t>Data Structures: Review Vecrors/Matrices/etc.</t>
   </si>
   <si>
-    <t>Concept Check: Prereading Quiz</t>
-  </si>
-  <si>
     <t>Tidy Data + Basics of Data Visualization (ggplot)</t>
   </si>
   <si>
-    <t>Lab1: Intro to Quarto (incorporate spiral + madlibs + fizzbuzz?)</t>
-  </si>
-  <si>
     <t>Midterm Exam???</t>
+  </si>
+  <si>
+    <t>PA 1: Find the mistakes (poem)</t>
+  </si>
+  <si>
+    <t>PA 2: Using Data Visualization to Find the Penguins</t>
+  </si>
+  <si>
+    <t>Lab2: Exploring Rodents with ggplot2</t>
+  </si>
+  <si>
+    <t>Challenge: Spicing things up with ggplot2</t>
+  </si>
+  <si>
+    <t>Lab1: Intro to Quarto</t>
+  </si>
+  <si>
+    <t>FizzBuzz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +750,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -787,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -831,6 +847,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1118,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1145,7 @@
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.44140625" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.6640625" bestFit="1" customWidth="1"/>
@@ -1229,7 +1246,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="D3" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>164</v>
@@ -1260,11 +1277,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>88</v>
@@ -1286,10 +1303,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>154</v>
@@ -1309,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>166</v>
@@ -1364,8 +1381,8 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="22" t="s">
-        <v>163</v>
+      <c r="F8" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>136</v>
@@ -1377,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" t="s">
         <v>114</v>
@@ -1387,8 +1404,8 @@
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>172</v>
+      <c r="F9" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>157</v>
@@ -1408,7 +1425,7 @@
         <v>168</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>56</v>
@@ -1431,9 +1448,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="E11" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="G11" s="9" t="s">
         <v>138</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>98</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
@@ -1584,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>138</v>
@@ -1608,7 +1623,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="E19" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
@@ -1630,7 +1645,7 @@
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1713,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>103</v>
@@ -1965,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>151</v>
@@ -2069,14 +2084,12 @@
     <hyperlink ref="J19" r:id="rId21" xr:uid="{0B04BF78-9EE4-43BF-82F6-B581BC24146C}"/>
     <hyperlink ref="J21" r:id="rId22" xr:uid="{44A13C4E-7496-4A3D-9945-E628ABF4F337}"/>
     <hyperlink ref="J23" r:id="rId23" xr:uid="{CE13A70E-CC36-4ADC-9A3E-580BA2EDED19}"/>
-    <hyperlink ref="F9" r:id="rId24" display="HW6: Data Frames (Video Games)" xr:uid="{2E3412C8-2BBA-4A6A-B162-F38F23598A8F}"/>
-    <hyperlink ref="F13" r:id="rId25" display="HW8: Murder in SQL City" xr:uid="{65C178E5-D1E2-4A2C-B6B2-53A4DF52F2DC}"/>
-    <hyperlink ref="F8" r:id="rId26" xr:uid="{9B3A5166-9122-4506-97D8-56D10A3D5384}"/>
-    <hyperlink ref="E30" r:id="rId27" xr:uid="{7384CE21-0B83-44EF-A91A-B6EBBFADD5FF}"/>
+    <hyperlink ref="F13" r:id="rId24" display="HW8: Murder in SQL City" xr:uid="{65C178E5-D1E2-4A2C-B6B2-53A4DF52F2DC}"/>
+    <hyperlink ref="E30" r:id="rId25" xr:uid="{7384CE21-0B83-44EF-A91A-B6EBBFADD5FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1009" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97EADDE2-6CAD-4AA6-A91B-4C310D43FAEB}"/>
+  <xr:revisionPtr revIDLastSave="1089" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43379539-E063-49F0-8C41-FD0CA4D344E7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="198">
   <si>
     <t>Week</t>
   </si>
@@ -641,9 +641,6 @@
     <t>Debugging + Version Control</t>
   </si>
   <si>
-    <t>Lab3: Murder in SQL City</t>
-  </si>
-  <si>
     <t>PA: Identify the mystery college</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
     <t>Statistical Modeling</t>
   </si>
   <si>
-    <t>Lab: Cereals Nutrition??</t>
-  </si>
-  <si>
     <t>Special Data Types: Strings + Factors + Dates</t>
   </si>
   <si>
@@ -671,9 +665,6 @@
     <t>Tidy Data + Basics of Data Visualization (ggplot)</t>
   </si>
   <si>
-    <t>Midterm Exam???</t>
-  </si>
-  <si>
     <t>PA 1: Find the mistakes (poem)</t>
   </si>
   <si>
@@ -683,13 +674,52 @@
     <t>Lab2: Exploring Rodents with ggplot2</t>
   </si>
   <si>
-    <t>Challenge: Spicing things up with ggplot2</t>
-  </si>
-  <si>
     <t>Lab1: Intro to Quarto</t>
   </si>
   <si>
-    <t>FizzBuzz</t>
+    <t>Lab3: HipHop Lyrics</t>
+  </si>
+  <si>
+    <t>PA: Murder in SQL City</t>
+  </si>
+  <si>
+    <t>Lab4: Avocado Prices</t>
+  </si>
+  <si>
+    <t>Midterm Exam</t>
+  </si>
+  <si>
+    <t>Bonus Challenge FizzBuzz (+5)</t>
+  </si>
+  <si>
+    <t>Challenge: Modifying your Quarto document (+10)</t>
+  </si>
+  <si>
+    <t>Challenge: Spicing things up with ggplot2 (+10)</t>
+  </si>
+  <si>
+    <t>Challenge: Concerns of social context (+10)</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: Ugly Graphics of Penguins (+2)</t>
+  </si>
+  <si>
+    <t>Challenge: Millenials buying houses (+10)</t>
+  </si>
+  <si>
+    <t>Challenge: ??? (+10)</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: FizzBuzz Returns (+5)</t>
+  </si>
+  <si>
+    <t>PA: Peer Review</t>
+  </si>
+  <si>
+    <t>Project Group Contracts</t>
+  </si>
+  <si>
+    <t>Project Proposals</t>
   </si>
 </sst>
 </file>
@@ -803,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -840,7 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -848,6 +877,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1135,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,8 +1178,8 @@
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.77734375" customWidth="1"/>
@@ -1246,12 +1279,14 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="D3" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="G3" s="9" t="s">
         <v>144</v>
       </c>
@@ -1277,11 +1312,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>187</v>
+      <c r="F4" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>88</v>
@@ -1303,10 +1338,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>154</v>
@@ -1326,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>166</v>
@@ -1352,7 +1387,9 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>139</v>
       </c>
@@ -1382,7 +1419,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="20"/>
       <c r="F8" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>136</v>
@@ -1394,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N8" t="s">
         <v>114</v>
@@ -1404,8 +1441,8 @@
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="27" t="s">
-        <v>185</v>
+      <c r="F9" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>157</v>
@@ -1425,7 +1462,10 @@
         <v>168</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>56</v>
@@ -1471,6 +1511,9 @@
         <v>6</v>
       </c>
       <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="G12" s="9" t="s">
         <v>141</v>
       </c>
@@ -1488,8 +1531,8 @@
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="22" t="s">
-        <v>171</v>
+      <c r="F13" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>97</v>
@@ -1517,8 +1560,8 @@
       <c r="E14" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>175</v>
+      <c r="F14" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
@@ -1535,6 +1578,9 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
+      <c r="E15" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="G15" s="9" t="s">
         <v>142</v>
       </c>
@@ -1559,6 +1605,9 @@
         <v>6</v>
       </c>
       <c r="E16" s="9"/>
+      <c r="F16" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>143</v>
       </c>
@@ -1575,8 +1624,8 @@
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>99</v>
+      <c r="F17" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>137</v>
@@ -1599,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>138</v>
@@ -1623,7 +1672,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="E19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
@@ -1643,9 +1692,9 @@
       <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="17" t="s">
-        <v>175</v>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1664,7 +1713,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="F21" s="17" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>162</v>
@@ -1728,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>103</v>
@@ -1740,25 +1789,28 @@
     <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
+      <c r="F25" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="N25" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>44612</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="2" t="s">
         <v>60</v>
       </c>
@@ -1771,12 +1823,12 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="9" t="s">
         <v>146</v>
       </c>
@@ -1800,6 +1852,12 @@
       <c r="D28" t="s">
         <v>73</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="G28" s="9" t="s">
         <v>147</v>
       </c>
@@ -1813,7 +1871,6 @@
     <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
-      <c r="E29"/>
       <c r="N29" s="4" t="s">
         <v>128</v>
       </c>
@@ -1831,10 +1888,12 @@
       <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="E30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>61</v>
       </c>
@@ -1853,6 +1912,9 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
+      <c r="F31" s="22" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="9" t="s">
         <v>109</v>
       </c>
@@ -1876,7 +1938,9 @@
       <c r="E32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="G32" s="9" t="s">
         <v>110</v>
       </c>
@@ -1894,7 +1958,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="8"/>
       <c r="F33" s="17" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -1948,6 +2012,9 @@
       <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="F36" s="27" t="s">
+        <v>110</v>
+      </c>
       <c r="G36" s="9" t="s">
         <v>108</v>
       </c>
@@ -1962,7 +2029,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="8"/>
       <c r="F37" s="17" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
@@ -1980,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>151</v>
@@ -2014,6 +2081,9 @@
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="F40" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="H40" s="9" t="s">
         <v>110</v>
       </c>
@@ -2022,7 +2092,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="8"/>
       <c r="F41" s="17" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>45</v>
@@ -2084,8 +2154,8 @@
     <hyperlink ref="J19" r:id="rId21" xr:uid="{0B04BF78-9EE4-43BF-82F6-B581BC24146C}"/>
     <hyperlink ref="J21" r:id="rId22" xr:uid="{44A13C4E-7496-4A3D-9945-E628ABF4F337}"/>
     <hyperlink ref="J23" r:id="rId23" xr:uid="{CE13A70E-CC36-4ADC-9A3E-580BA2EDED19}"/>
-    <hyperlink ref="F13" r:id="rId24" display="HW8: Murder in SQL City" xr:uid="{65C178E5-D1E2-4A2C-B6B2-53A4DF52F2DC}"/>
-    <hyperlink ref="E30" r:id="rId25" xr:uid="{7384CE21-0B83-44EF-A91A-B6EBBFADD5FF}"/>
+    <hyperlink ref="E15" r:id="rId24" display="HW8: Murder in SQL City" xr:uid="{ACFAB293-4568-4A17-9F13-2D48CF6DD90D}"/>
+    <hyperlink ref="F31" r:id="rId25" display="HW9: FizzBuzz Returns" xr:uid="{73C016D6-1E01-4539-810B-BEE1B7227760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1089" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43379539-E063-49F0-8C41-FD0CA4D344E7}"/>
+  <xr:revisionPtr revIDLastSave="1091" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640A5519-2362-4E5E-BC97-A2F1C2C28982}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="199">
   <si>
     <t>Week</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>Project Proposals</t>
+  </si>
+  <si>
+    <t>Project Groups</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -877,10 +880,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,7 +1314,7 @@
         <v>177</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="16" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1693,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -1713,7 +1712,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="F21" s="17" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>162</v>
@@ -1891,7 +1890,7 @@
       <c r="E30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="9" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1938,7 +1937,7 @@
       <c r="E32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G32" s="9" t="s">
@@ -2012,7 +2011,7 @@
       <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="9" t="s">
         <v>110</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -2081,7 +2080,7 @@
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="H40" s="9" t="s">

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1091" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640A5519-2362-4E5E-BC97-A2F1C2C28982}"/>
+  <xr:revisionPtr revIDLastSave="1148" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E23AB33-E5DD-4FCF-9A03-DBF049820828}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
   <si>
     <t>Week</t>
   </si>
@@ -680,9 +680,6 @@
     <t>Lab3: HipHop Lyrics</t>
   </si>
   <si>
-    <t>PA: Murder in SQL City</t>
-  </si>
-  <si>
     <t>Lab4: Avocado Prices</t>
   </si>
   <si>
@@ -713,9 +710,6 @@
     <t>Bonus Challenge: FizzBuzz Returns (+5)</t>
   </si>
   <si>
-    <t>PA: Peer Review</t>
-  </si>
-  <si>
     <t>Project Group Contracts</t>
   </si>
   <si>
@@ -723,13 +717,34 @@
   </si>
   <si>
     <t>Project Groups</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: Murder in SQL City (+5; +5)</t>
+  </si>
+  <si>
+    <t>Challenge: Styling Your Song (+10)</t>
+  </si>
+  <si>
+    <t>Lab8: The 12 Days of Christmas</t>
+  </si>
+  <si>
+    <t>Lab7: Functions &amp; Fish</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: Data Mishaps Night (+10)</t>
+  </si>
+  <si>
+    <t>Challenge: Incorporating Multiple Inputs (+10)</t>
+  </si>
+  <si>
+    <t>No Challenge this week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +805,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -836,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -880,6 +912,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1165,17 +1200,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
@@ -1284,7 +1319,7 @@
         <v>164</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>144</v>
@@ -1340,7 +1375,7 @@
         <v>179</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>154</v>
@@ -1387,7 +1422,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>139</v>
@@ -1441,7 +1476,7 @@
       <c r="C9" s="8"/>
       <c r="E9" s="21"/>
       <c r="F9" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>157</v>
@@ -1531,7 +1566,7 @@
       <c r="C13" s="8"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>97</v>
@@ -1577,9 +1612,8 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="E15" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="9" t="s">
         <v>142</v>
       </c>
@@ -1605,7 +1639,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>143</v>
@@ -1624,7 +1658,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>137</v>
@@ -1651,6 +1685,9 @@
       </c>
       <c r="E18" s="9" t="s">
         <v>138</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
@@ -1673,6 +1710,9 @@
       <c r="E19" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="F19" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
         <v>100</v>
@@ -1693,7 +1733,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1711,8 +1751,8 @@
     <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
-      <c r="F21" s="17" t="s">
-        <v>198</v>
+      <c r="F21" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>162</v>
@@ -1775,8 +1815,8 @@
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>186</v>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>103</v>
@@ -1788,8 +1828,8 @@
     <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
-      <c r="F25" s="17" t="s">
-        <v>196</v>
+      <c r="F25" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>126</v>
@@ -1849,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>197</v>
+        <v>104</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>147</v>
@@ -1867,266 +1907,288 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="N29" s="4" t="s">
-        <v>128</v>
-      </c>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N30" t="s">
-        <v>129</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
-      <c r="F31" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44619</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>8</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B35" s="1">
         <v>44621</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="F36" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="G38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44628</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="F33" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="G39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="F40" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44633</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="H42" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44635</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="F44" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1">
-        <v>44626</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="G35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="N36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-      <c r="F37" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="H45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44642</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="1">
-        <v>44623</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="H39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1">
-        <v>44635</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-      <c r="F41" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5">
-        <v>44642</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2139,9 +2201,9 @@
     <hyperlink ref="K6" r:id="rId7" display="Data Visualization" xr:uid="{477C459D-0AD6-406E-AA1D-81BD3BD71237}"/>
     <hyperlink ref="K2" r:id="rId8" display="Getting Started with Data in R" xr:uid="{FAA34196-E3F3-41C4-9B93-CF4CABF5DE59}"/>
     <hyperlink ref="K7" r:id="rId9" xr:uid="{94E9FFA8-E41F-482A-9AB1-ED0201621E60}"/>
-    <hyperlink ref="K30" r:id="rId10" xr:uid="{613C321A-4D19-4F8E-BB5F-5B67FA206B7A}"/>
-    <hyperlink ref="K34" r:id="rId11" xr:uid="{640A69BE-3663-4D0C-8B1F-0C303EBB03D3}"/>
-    <hyperlink ref="K35" r:id="rId12" xr:uid="{44E04894-FEBF-4C96-96E4-2006799C1D36}"/>
+    <hyperlink ref="K33" r:id="rId10" xr:uid="{613C321A-4D19-4F8E-BB5F-5B67FA206B7A}"/>
+    <hyperlink ref="K37" r:id="rId11" xr:uid="{640A69BE-3663-4D0C-8B1F-0C303EBB03D3}"/>
+    <hyperlink ref="K38" r:id="rId12" xr:uid="{44E04894-FEBF-4C96-96E4-2006799C1D36}"/>
     <hyperlink ref="J4" r:id="rId13" xr:uid="{17C6AD4E-A39A-4B09-B7BD-5D3C4FCDDB39}"/>
     <hyperlink ref="J5" r:id="rId14" xr:uid="{FC9295D7-10BE-410E-A954-DDE28E3B6C57}"/>
     <hyperlink ref="J7" r:id="rId15" xr:uid="{9DE17DE3-BD4A-48B0-8A8B-CA752CBCEAEF}"/>
@@ -2153,12 +2215,11 @@
     <hyperlink ref="J19" r:id="rId21" xr:uid="{0B04BF78-9EE4-43BF-82F6-B581BC24146C}"/>
     <hyperlink ref="J21" r:id="rId22" xr:uid="{44A13C4E-7496-4A3D-9945-E628ABF4F337}"/>
     <hyperlink ref="J23" r:id="rId23" xr:uid="{CE13A70E-CC36-4ADC-9A3E-580BA2EDED19}"/>
-    <hyperlink ref="E15" r:id="rId24" display="HW8: Murder in SQL City" xr:uid="{ACFAB293-4568-4A17-9F13-2D48CF6DD90D}"/>
-    <hyperlink ref="F31" r:id="rId25" display="HW9: FizzBuzz Returns" xr:uid="{73C016D6-1E01-4539-810B-BEE1B7227760}"/>
+    <hyperlink ref="F28" r:id="rId24" display="HW9: FizzBuzz Returns" xr:uid="{FDF7C5E2-56A0-42F9-A00F-DE9978BCDA84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1148" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E23AB33-E5DD-4FCF-9A03-DBF049820828}"/>
+  <xr:revisionPtr revIDLastSave="1149" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F28E86A-2229-4D21-BF14-326CB8C52B86}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,13 +731,13 @@
     <t>Lab7: Functions &amp; Fish</t>
   </si>
   <si>
-    <t>Bonus Challenge: Data Mishaps Night (+10)</t>
-  </si>
-  <si>
     <t>Challenge: Incorporating Multiple Inputs (+10)</t>
   </si>
   <si>
     <t>No Challenge this week</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: Data Mishaps Night (+8)</t>
   </si>
 </sst>
 </file>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1911,7 +1911,7 @@
       <c r="B29" s="1"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1929,7 +1929,7 @@
       <c r="B31" s="1"/>
       <c r="E31" s="9"/>
       <c r="F31" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1149" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F28E86A-2229-4D21-BF14-326CB8C52B86}"/>
+  <xr:revisionPtr revIDLastSave="1157" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11911E1-1ADC-4658-929C-1B8C42654A9D}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="205">
   <si>
     <t>Week</t>
   </si>
@@ -707,9 +707,6 @@
     <t>Challenge: ??? (+10)</t>
   </si>
   <si>
-    <t>Bonus Challenge: FizzBuzz Returns (+5)</t>
-  </si>
-  <si>
     <t>Project Group Contracts</t>
   </si>
   <si>
@@ -738,6 +735,12 @@
   </si>
   <si>
     <t>Bonus Challenge: Data Mishaps Night (+8)</t>
+  </si>
+  <si>
+    <t>FinalProject Challenge (+11)</t>
+  </si>
+  <si>
+    <t>Bonus Challenge: ShinyConf (+12)</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,6 +918,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1203,7 +1207,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1691,7 @@
         <v>138</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
@@ -1733,7 +1737,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>101</v>
@@ -1752,7 +1756,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="F21" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>162</v>
@@ -1829,7 +1833,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
       <c r="F25" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>126</v>
@@ -1894,9 +1898,7 @@
       <c r="E28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>193</v>
-      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="9" t="s">
         <v>147</v>
       </c>
@@ -1911,7 +1913,7 @@
       <c r="B29" s="1"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1920,7 +1922,7 @@
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1929,7 +1931,7 @@
       <c r="B31" s="1"/>
       <c r="E31" s="9"/>
       <c r="F31" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1939,7 +1941,7 @@
       <c r="C32" s="8"/>
       <c r="E32" s="21"/>
       <c r="F32" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>128</v>
@@ -2000,7 +2002,7 @@
         <v>106</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>110</v>
@@ -2019,7 +2021,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="8"/>
       <c r="F36" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2113,6 +2115,9 @@
       <c r="E41" s="9" t="s">
         <v>151</v>
       </c>
+      <c r="F41" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>63</v>
       </c>
@@ -2171,6 +2176,9 @@
       </c>
       <c r="C45" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>31</v>
@@ -2215,11 +2223,10 @@
     <hyperlink ref="J19" r:id="rId21" xr:uid="{0B04BF78-9EE4-43BF-82F6-B581BC24146C}"/>
     <hyperlink ref="J21" r:id="rId22" xr:uid="{44A13C4E-7496-4A3D-9945-E628ABF4F337}"/>
     <hyperlink ref="J23" r:id="rId23" xr:uid="{CE13A70E-CC36-4ADC-9A3E-580BA2EDED19}"/>
-    <hyperlink ref="F28" r:id="rId24" display="HW9: FizzBuzz Returns" xr:uid="{FDF7C5E2-56A0-42F9-A00F-DE9978BCDA84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 

--- a/00-course-info/course-schedule.xlsx
+++ b/00-course-info/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-331-calpoly/00-course-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1157" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11911E1-1ADC-4658-929C-1B8C42654A9D}"/>
+  <xr:revisionPtr revIDLastSave="1166" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A113DA7-55A0-4488-9AB1-751070DEA6DE}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="205">
   <si>
     <t>Week</t>
   </si>
@@ -740,7 +740,7 @@
     <t>FinalProject Challenge (+11)</t>
   </si>
   <si>
-    <t>Bonus Challenge: ShinyConf (+12)</t>
+    <t>Bonus Challenge: ShinyConf (+20)</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,7 +918,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1207,7 +1206,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,7 +2114,7 @@
       <c r="E41" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="9" t="s">
         <v>204</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2157,9 +2156,7 @@
     <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="8"/>
-      <c r="F44" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="F44" s="17"/>
       <c r="H44" s="3" t="s">
         <v>45</v>
       </c>
